--- a/data/SP500_stocks_and_benchmark.xlsx
+++ b/data/SP500_stocks_and_benchmark.xlsx
@@ -12,42 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">AAPL</t>
+  </si>
   <si>
     <t xml:space="preserve">MSFT</t>
   </si>
   <si>
-    <t xml:space="preserve">AAPL</t>
+    <t xml:space="preserve">NVDA</t>
   </si>
   <si>
     <t xml:space="preserve">AMZN</t>
   </si>
   <si>
-    <t xml:space="preserve">NVDA</t>
+    <t xml:space="preserve">META</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOG</t>
   </si>
   <si>
     <t xml:space="preserve">GOOGL</t>
   </si>
   <si>
-    <t xml:space="preserve">META</t>
+    <t xml:space="preserve">TSLA</t>
   </si>
   <si>
-    <t xml:space="preserve">KO</t>
+    <t xml:space="preserve">AVGO</t>
   </si>
   <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^GSPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACWI</t>
+    <t xml:space="preserve">LLY</t>
   </si>
 </sst>
 </file>
@@ -410,2329 +404,1957 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>39.435001373291</v>
+      </c>
+      <c r="B2" t="n">
         <v>101.569999694824</v>
       </c>
-      <c r="B2" t="n">
-        <v>39.435001373291</v>
-      </c>
       <c r="C2" t="n">
+        <v>33.375</v>
+      </c>
+      <c r="D2" t="n">
         <v>75.098503112793</v>
       </c>
-      <c r="D2" t="n">
-        <v>33.375</v>
-      </c>
       <c r="E2" t="n">
+        <v>131.089996337891</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51.7804985046387</v>
+      </c>
+      <c r="G2" t="n">
         <v>52.2480010986328</v>
       </c>
-      <c r="F2" t="n">
-        <v>131.089996337891</v>
-      </c>
-      <c r="G2" t="n">
-        <v>47.3499984741211</v>
-      </c>
       <c r="H2" t="n">
-        <v>131.940002441406</v>
+        <v>22.1866664886475</v>
       </c>
       <c r="I2" t="n">
-        <v>203.710006713867</v>
+        <v>254.279998779297</v>
       </c>
       <c r="J2" t="n">
-        <v>188.649993896484</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2506.85009765625</v>
-      </c>
-      <c r="L2" t="n">
-        <v>64.1600036621094</v>
+        <v>115.720001220703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>41.6100006103516</v>
+      </c>
+      <c r="B3" t="n">
         <v>104.430000305176</v>
       </c>
-      <c r="B3" t="n">
-        <v>41.6100006103516</v>
-      </c>
       <c r="C3" t="n">
+        <v>35.9375</v>
+      </c>
+      <c r="D3" t="n">
         <v>85.9365005493164</v>
       </c>
-      <c r="D3" t="n">
-        <v>35.9375</v>
-      </c>
       <c r="E3" t="n">
+        <v>166.690002441406</v>
+      </c>
+      <c r="F3" t="n">
+        <v>55.8185005187988</v>
+      </c>
+      <c r="G3" t="n">
         <v>56.2944984436035</v>
       </c>
-      <c r="F3" t="n">
-        <v>166.690002441406</v>
-      </c>
-      <c r="G3" t="n">
-        <v>48.1300010681152</v>
-      </c>
       <c r="H3" t="n">
-        <v>135.009994506836</v>
+        <v>20.4680004119873</v>
       </c>
       <c r="I3" t="n">
-        <v>214.630004882812</v>
+        <v>268.25</v>
       </c>
       <c r="J3" t="n">
-        <v>211.130004882812</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2704.10009765625</v>
-      </c>
-      <c r="L3" t="n">
-        <v>69.3199996948242</v>
+        <v>119.860000610352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>43.2874984741211</v>
+      </c>
+      <c r="B4" t="n">
         <v>112.029998779297</v>
       </c>
-      <c r="B4" t="n">
-        <v>43.2874984741211</v>
-      </c>
       <c r="C4" t="n">
+        <v>38.564998626709</v>
+      </c>
+      <c r="D4" t="n">
         <v>81.9915008544922</v>
       </c>
-      <c r="D4" t="n">
-        <v>38.564998626709</v>
-      </c>
       <c r="E4" t="n">
+        <v>161.449996948242</v>
+      </c>
+      <c r="F4" t="n">
+        <v>55.9959983825684</v>
+      </c>
+      <c r="G4" t="n">
         <v>56.3274993896484</v>
       </c>
-      <c r="F4" t="n">
-        <v>161.449996948242</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45.3400001525879</v>
-      </c>
       <c r="H4" t="n">
-        <v>148.119995117188</v>
+        <v>21.3253326416016</v>
       </c>
       <c r="I4" t="n">
-        <v>218.740005493164</v>
+        <v>275.359985351562</v>
       </c>
       <c r="J4" t="n">
-        <v>224.770004272461</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2784.48999023438</v>
-      </c>
-      <c r="L4" t="n">
-        <v>71.0299987792969</v>
+        <v>126.290000915527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>47.4874992370605</v>
+      </c>
+      <c r="B5" t="n">
         <v>117.940002441406</v>
       </c>
-      <c r="B5" t="n">
-        <v>47.4874992370605</v>
-      </c>
       <c r="C5" t="n">
+        <v>44.8899993896484</v>
+      </c>
+      <c r="D5" t="n">
         <v>89.0374984741211</v>
       </c>
-      <c r="D5" t="n">
-        <v>44.8899993896484</v>
-      </c>
       <c r="E5" t="n">
+        <v>166.690002441406</v>
+      </c>
+      <c r="F5" t="n">
+        <v>58.6655006408691</v>
+      </c>
+      <c r="G5" t="n">
         <v>58.8445014953613</v>
       </c>
-      <c r="F5" t="n">
-        <v>166.690002441406</v>
-      </c>
-      <c r="G5" t="n">
-        <v>46.8600006103516</v>
-      </c>
       <c r="H5" t="n">
-        <v>156.190002441406</v>
+        <v>18.6573333740234</v>
       </c>
       <c r="I5" t="n">
-        <v>242.139999389648</v>
+        <v>300.709991455078</v>
       </c>
       <c r="J5" t="n">
-        <v>235.449996948242</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2834.39990234375</v>
-      </c>
-      <c r="L5" t="n">
-        <v>72.1500015258789</v>
+        <v>129.759994506836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>50.1674995422363</v>
+      </c>
+      <c r="B6" t="n">
         <v>130.600006103516</v>
       </c>
-      <c r="B6" t="n">
-        <v>50.1674995422363</v>
-      </c>
       <c r="C6" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="D6" t="n">
         <v>96.3259963989258</v>
       </c>
-      <c r="D6" t="n">
-        <v>45.25</v>
-      </c>
       <c r="E6" t="n">
+        <v>193.399993896484</v>
+      </c>
+      <c r="F6" t="n">
+        <v>59.423999786377</v>
+      </c>
+      <c r="G6" t="n">
         <v>59.9480018615723</v>
       </c>
-      <c r="F6" t="n">
-        <v>193.399993896484</v>
-      </c>
-      <c r="G6" t="n">
-        <v>49.060001373291</v>
-      </c>
       <c r="H6" t="n">
-        <v>164.429992675781</v>
+        <v>15.9126672744751</v>
       </c>
       <c r="I6" t="n">
-        <v>245.529998779297</v>
+        <v>318.399993896484</v>
       </c>
       <c r="J6" t="n">
-        <v>254.240005493164</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2945.830078125</v>
-      </c>
-      <c r="L6" t="n">
-        <v>74.620002746582</v>
+        <v>117.040000915527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>43.7675018310547</v>
+      </c>
+      <c r="B7" t="n">
         <v>123.680000305176</v>
       </c>
-      <c r="B7" t="n">
-        <v>43.7675018310547</v>
-      </c>
       <c r="C7" t="n">
+        <v>33.8650016784668</v>
+      </c>
+      <c r="D7" t="n">
         <v>88.7535018920898</v>
       </c>
-      <c r="D7" t="n">
-        <v>33.8650016784668</v>
-      </c>
       <c r="E7" t="n">
+        <v>177.470001220703</v>
+      </c>
+      <c r="F7" t="n">
+        <v>55.1814994812012</v>
+      </c>
+      <c r="G7" t="n">
         <v>55.3250007629395</v>
       </c>
-      <c r="F7" t="n">
-        <v>177.470001220703</v>
-      </c>
-      <c r="G7" t="n">
-        <v>49.1300010681152</v>
-      </c>
       <c r="H7" t="n">
-        <v>161.330001831055</v>
+        <v>12.3439998626709</v>
       </c>
       <c r="I7" t="n">
-        <v>239.580001831055</v>
+        <v>251.639999389648</v>
       </c>
       <c r="J7" t="n">
-        <v>251.490005493164</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2752.06005859375</v>
-      </c>
-      <c r="L7" t="n">
-        <v>70.0899963378906</v>
+        <v>115.940002441406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>49.4799995422363</v>
+      </c>
+      <c r="B8" t="n">
         <v>133.960006713867</v>
       </c>
-      <c r="B8" t="n">
-        <v>49.4799995422363</v>
-      </c>
       <c r="C8" t="n">
+        <v>41.0574989318848</v>
+      </c>
+      <c r="D8" t="n">
         <v>94.6815032958984</v>
       </c>
-      <c r="D8" t="n">
-        <v>41.0574989318848</v>
-      </c>
       <c r="E8" t="n">
+        <v>193</v>
+      </c>
+      <c r="F8" t="n">
+        <v>54.0455017089844</v>
+      </c>
+      <c r="G8" t="n">
         <v>54.1399993896484</v>
       </c>
-      <c r="F8" t="n">
-        <v>193</v>
-      </c>
-      <c r="G8" t="n">
-        <v>50.9199981689453</v>
-      </c>
       <c r="H8" t="n">
-        <v>173.550003051758</v>
+        <v>14.8973331451416</v>
       </c>
       <c r="I8" t="n">
-        <v>264.260009765625</v>
+        <v>287.859985351562</v>
       </c>
       <c r="J8" t="n">
-        <v>264.529998779297</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2941.76000976562</v>
-      </c>
-      <c r="L8" t="n">
-        <v>73.7099990844727</v>
+        <v>110.790000915527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>53.2599983215332</v>
+      </c>
+      <c r="B9" t="n">
         <v>136.270004272461</v>
       </c>
-      <c r="B9" t="n">
-        <v>53.2599983215332</v>
-      </c>
       <c r="C9" t="n">
+        <v>42.1800003051758</v>
+      </c>
+      <c r="D9" t="n">
         <v>93.338996887207</v>
       </c>
-      <c r="D9" t="n">
-        <v>42.1800003051758</v>
-      </c>
       <c r="E9" t="n">
+        <v>194.229995727539</v>
+      </c>
+      <c r="F9" t="n">
+        <v>60.8339996337891</v>
+      </c>
+      <c r="G9" t="n">
         <v>60.9099998474121</v>
       </c>
-      <c r="F9" t="n">
-        <v>194.229995727539</v>
-      </c>
-      <c r="G9" t="n">
-        <v>52.6300010681152</v>
-      </c>
       <c r="H9" t="n">
-        <v>178</v>
+        <v>16.1073322296143</v>
       </c>
       <c r="I9" t="n">
-        <v>275.630004882812</v>
+        <v>289.989990234375</v>
       </c>
       <c r="J9" t="n">
-        <v>272.269989013672</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2980.3798828125</v>
-      </c>
-      <c r="L9" t="n">
-        <v>73.7600021362305</v>
+        <v>108.949996948242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>52.185001373291</v>
+      </c>
+      <c r="B10" t="n">
         <v>137.860000610352</v>
       </c>
-      <c r="B10" t="n">
-        <v>52.185001373291</v>
-      </c>
       <c r="C10" t="n">
+        <v>41.877498626709</v>
+      </c>
+      <c r="D10" t="n">
         <v>88.8144989013672</v>
       </c>
-      <c r="D10" t="n">
-        <v>41.877498626709</v>
-      </c>
       <c r="E10" t="n">
+        <v>185.669998168945</v>
+      </c>
+      <c r="F10" t="n">
+        <v>59.4049987792969</v>
+      </c>
+      <c r="G10" t="n">
         <v>59.5265007019043</v>
       </c>
-      <c r="F10" t="n">
-        <v>185.669998168945</v>
-      </c>
-      <c r="G10" t="n">
-        <v>55.0400009155273</v>
-      </c>
       <c r="H10" t="n">
-        <v>180.820007324219</v>
+        <v>15.0406665802002</v>
       </c>
       <c r="I10" t="n">
-        <v>294.760009765625</v>
+        <v>282.640014648438</v>
       </c>
       <c r="J10" t="n">
-        <v>281.369995117188</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2926.4599609375</v>
-      </c>
-      <c r="L10" t="n">
-        <v>72.129997253418</v>
+        <v>112.970001220703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>55.9925003051758</v>
+      </c>
+      <c r="B11" t="n">
         <v>139.029998779297</v>
       </c>
-      <c r="B11" t="n">
-        <v>55.9925003051758</v>
-      </c>
       <c r="C11" t="n">
+        <v>43.5175018310547</v>
+      </c>
+      <c r="D11" t="n">
         <v>86.7955017089844</v>
       </c>
-      <c r="D11" t="n">
-        <v>43.5175018310547</v>
-      </c>
       <c r="E11" t="n">
+        <v>178.080001831055</v>
+      </c>
+      <c r="F11" t="n">
+        <v>60.9500007629395</v>
+      </c>
+      <c r="G11" t="n">
         <v>61.056999206543</v>
       </c>
-      <c r="F11" t="n">
-        <v>178.080001831055</v>
-      </c>
-      <c r="G11" t="n">
-        <v>54.439998626709</v>
-      </c>
       <c r="H11" t="n">
-        <v>172.009994506836</v>
+        <v>16.0580005645752</v>
       </c>
       <c r="I11" t="n">
-        <v>288.109985351562</v>
+        <v>276.070007324219</v>
       </c>
       <c r="J11" t="n">
-        <v>271.570007324219</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2976.73999023438</v>
-      </c>
-      <c r="L11" t="n">
-        <v>73.75</v>
+        <v>111.830001831055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>62.189998626709</v>
+      </c>
+      <c r="B12" t="n">
         <v>143.369995117188</v>
       </c>
-      <c r="B12" t="n">
-        <v>62.189998626709</v>
-      </c>
       <c r="C12" t="n">
+        <v>50.2550010681152</v>
+      </c>
+      <c r="D12" t="n">
         <v>88.8330001831055</v>
       </c>
-      <c r="D12" t="n">
-        <v>50.2550010681152</v>
-      </c>
       <c r="E12" t="n">
+        <v>191.649993896484</v>
+      </c>
+      <c r="F12" t="n">
+        <v>63.005500793457</v>
+      </c>
+      <c r="G12" t="n">
         <v>62.939998626709</v>
       </c>
-      <c r="F12" t="n">
-        <v>191.649993896484</v>
-      </c>
-      <c r="G12" t="n">
-        <v>54.4300003051758</v>
-      </c>
       <c r="H12" t="n">
-        <v>178.860000610352</v>
+        <v>20.9946670532227</v>
       </c>
       <c r="I12" t="n">
-        <v>297.109985351562</v>
+        <v>292.850006103516</v>
       </c>
       <c r="J12" t="n">
-        <v>276.809997558594</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3037.56005859375</v>
-      </c>
-      <c r="L12" t="n">
-        <v>75.7699966430664</v>
+        <v>113.949996948242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>66.8125</v>
+      </c>
+      <c r="B13" t="n">
         <v>151.380004882812</v>
       </c>
-      <c r="B13" t="n">
-        <v>66.8125</v>
-      </c>
       <c r="C13" t="n">
+        <v>54.185001373291</v>
+      </c>
+      <c r="D13" t="n">
         <v>90.0400009155273</v>
       </c>
-      <c r="D13" t="n">
-        <v>54.185001373291</v>
-      </c>
       <c r="E13" t="n">
+        <v>201.639999389648</v>
+      </c>
+      <c r="F13" t="n">
+        <v>65.2480010986328</v>
+      </c>
+      <c r="G13" t="n">
         <v>65.2044982910156</v>
       </c>
-      <c r="F13" t="n">
-        <v>201.639999389648</v>
-      </c>
-      <c r="G13" t="n">
-        <v>53.4000015258789</v>
-      </c>
       <c r="H13" t="n">
-        <v>184.509994506836</v>
+        <v>21.996000289917</v>
       </c>
       <c r="I13" t="n">
-        <v>299.809997558594</v>
+        <v>316.209991455078</v>
       </c>
       <c r="J13" t="n">
-        <v>292.230010986328</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3140.97998046875</v>
-      </c>
-      <c r="L13" t="n">
-        <v>77.5400009155273</v>
+        <v>117.349998474121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>73.4124984741211</v>
+      </c>
+      <c r="B14" t="n">
         <v>157.699996948242</v>
       </c>
-      <c r="B14" t="n">
-        <v>73.4124984741211</v>
-      </c>
       <c r="C14" t="n">
+        <v>58.8250007629395</v>
+      </c>
+      <c r="D14" t="n">
         <v>92.3919982910156</v>
       </c>
-      <c r="D14" t="n">
-        <v>58.8250007629395</v>
-      </c>
       <c r="E14" t="n">
+        <v>205.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>66.8509979248047</v>
+      </c>
+      <c r="G14" t="n">
         <v>66.9694976806641</v>
       </c>
-      <c r="F14" t="n">
-        <v>205.25</v>
-      </c>
-      <c r="G14" t="n">
-        <v>55.3499984741211</v>
-      </c>
       <c r="H14" t="n">
-        <v>187.899993896484</v>
+        <v>27.8886661529541</v>
       </c>
       <c r="I14" t="n">
-        <v>293.920013427734</v>
+        <v>316.019989013672</v>
       </c>
       <c r="J14" t="n">
-        <v>298.589996337891</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3230.78002929688</v>
-      </c>
-      <c r="L14" t="n">
-        <v>79.25</v>
+        <v>131.429992675781</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>77.3775024414062</v>
+      </c>
+      <c r="B15" t="n">
         <v>170.229995727539</v>
       </c>
-      <c r="B15" t="n">
-        <v>77.3775024414062</v>
-      </c>
       <c r="C15" t="n">
+        <v>59.1074981689453</v>
+      </c>
+      <c r="D15" t="n">
         <v>100.435997009277</v>
       </c>
-      <c r="D15" t="n">
-        <v>59.1074981689453</v>
-      </c>
       <c r="E15" t="n">
+        <v>201.910003662109</v>
+      </c>
+      <c r="F15" t="n">
+        <v>71.7115020751953</v>
+      </c>
+      <c r="G15" t="n">
         <v>71.6389999389648</v>
       </c>
-      <c r="F15" t="n">
-        <v>201.910003662109</v>
-      </c>
-      <c r="G15" t="n">
-        <v>58.4000015258789</v>
-      </c>
       <c r="H15" t="n">
-        <v>198.970001220703</v>
+        <v>43.3713340759277</v>
       </c>
       <c r="I15" t="n">
-        <v>305.519989013672</v>
+        <v>305.160003662109</v>
       </c>
       <c r="J15" t="n">
-        <v>315.940002441406</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3225.52001953125</v>
-      </c>
-      <c r="L15" t="n">
-        <v>78.1100006103516</v>
+        <v>139.639999389648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>68.3399963378906</v>
+      </c>
+      <c r="B16" t="n">
         <v>162.009994506836</v>
       </c>
-      <c r="B16" t="n">
-        <v>68.3399963378906</v>
-      </c>
       <c r="C16" t="n">
+        <v>67.5175018310547</v>
+      </c>
+      <c r="D16" t="n">
         <v>94.1875</v>
       </c>
-      <c r="D16" t="n">
-        <v>67.5175018310547</v>
-      </c>
       <c r="E16" t="n">
+        <v>192.470001220703</v>
+      </c>
+      <c r="F16" t="n">
+        <v>66.9664993286133</v>
+      </c>
+      <c r="G16" t="n">
         <v>66.9625015258789</v>
       </c>
-      <c r="F16" t="n">
-        <v>192.470001220703</v>
-      </c>
-      <c r="G16" t="n">
-        <v>53.4900016784668</v>
-      </c>
       <c r="H16" t="n">
-        <v>181.759994506836</v>
+        <v>44.5326652526855</v>
       </c>
       <c r="I16" t="n">
-        <v>281.140014648438</v>
+        <v>272.619995117188</v>
       </c>
       <c r="J16" t="n">
-        <v>290.25</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2954.21997070312</v>
-      </c>
-      <c r="L16" t="n">
-        <v>72.2600021362305</v>
+        <v>126.129997253418</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>63.5724983215332</v>
+      </c>
+      <c r="B17" t="n">
         <v>157.710006713867</v>
       </c>
-      <c r="B17" t="n">
-        <v>63.5724983215332</v>
-      </c>
       <c r="C17" t="n">
+        <v>65.9000015258789</v>
+      </c>
+      <c r="D17" t="n">
         <v>97.4860000610352</v>
       </c>
-      <c r="D17" t="n">
-        <v>65.9000015258789</v>
-      </c>
       <c r="E17" t="n">
+        <v>166.800003051758</v>
+      </c>
+      <c r="F17" t="n">
+        <v>58.1404991149902</v>
+      </c>
+      <c r="G17" t="n">
         <v>58.0974998474121</v>
       </c>
-      <c r="F17" t="n">
-        <v>166.800003051758</v>
-      </c>
-      <c r="G17" t="n">
-        <v>44.25</v>
-      </c>
       <c r="H17" t="n">
-        <v>161.119995117188</v>
+        <v>34.9333343505859</v>
       </c>
       <c r="I17" t="n">
-        <v>285.130004882812</v>
+        <v>237.100006103516</v>
       </c>
       <c r="J17" t="n">
-        <v>241.559997558594</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2584.59008789062</v>
-      </c>
-      <c r="L17" t="n">
-        <v>62.5699996948242</v>
+        <v>138.720001220703</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>73.4499969482422</v>
+      </c>
+      <c r="B18" t="n">
         <v>179.210006713867</v>
       </c>
-      <c r="B18" t="n">
-        <v>73.4499969482422</v>
-      </c>
       <c r="C18" t="n">
+        <v>73.0699996948242</v>
+      </c>
+      <c r="D18" t="n">
         <v>123.699996948242</v>
       </c>
-      <c r="D18" t="n">
-        <v>73.0699996948242</v>
-      </c>
       <c r="E18" t="n">
+        <v>204.710006713867</v>
+      </c>
+      <c r="F18" t="n">
+        <v>67.4329986572266</v>
+      </c>
+      <c r="G18" t="n">
         <v>67.3349990844727</v>
       </c>
-      <c r="F18" t="n">
-        <v>204.710006713867</v>
-      </c>
-      <c r="G18" t="n">
-        <v>45.8899993896484</v>
-      </c>
       <c r="H18" t="n">
-        <v>178.720001220703</v>
+        <v>52.1253318786621</v>
       </c>
       <c r="I18" t="n">
-        <v>303</v>
+        <v>271.619995117188</v>
       </c>
       <c r="J18" t="n">
-        <v>274.970001220703</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2912.42993164062</v>
-      </c>
-      <c r="L18" t="n">
-        <v>68.7200012207031</v>
+        <v>154.639999389648</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>79.4850006103516</v>
+      </c>
+      <c r="B19" t="n">
         <v>183.25</v>
       </c>
-      <c r="B19" t="n">
-        <v>79.4850006103516</v>
-      </c>
       <c r="C19" t="n">
+        <v>88.754997253418</v>
+      </c>
+      <c r="D19" t="n">
         <v>122.118499755859</v>
       </c>
-      <c r="D19" t="n">
-        <v>88.754997253418</v>
-      </c>
       <c r="E19" t="n">
+        <v>225.089996337891</v>
+      </c>
+      <c r="F19" t="n">
+        <v>71.4459991455078</v>
+      </c>
+      <c r="G19" t="n">
         <v>71.6760025024414</v>
       </c>
-      <c r="F19" t="n">
-        <v>225.089996337891</v>
-      </c>
-      <c r="G19" t="n">
-        <v>46.6800003051758</v>
-      </c>
       <c r="H19" t="n">
-        <v>195.240005493164</v>
+        <v>55.6666679382324</v>
       </c>
       <c r="I19" t="n">
-        <v>308.470001220703</v>
+        <v>291.269989013672</v>
       </c>
       <c r="J19" t="n">
-        <v>300.890014648438</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3044.31005859375</v>
-      </c>
-      <c r="L19" t="n">
-        <v>72.2200012207031</v>
+        <v>152.949996948242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>91.1999969482422</v>
+      </c>
+      <c r="B20" t="n">
         <v>203.509994506836</v>
       </c>
-      <c r="B20" t="n">
-        <v>91.1999969482422</v>
-      </c>
       <c r="C20" t="n">
+        <v>94.9775009155273</v>
+      </c>
+      <c r="D20" t="n">
         <v>137.940994262695</v>
       </c>
-      <c r="D20" t="n">
-        <v>94.9775009155273</v>
-      </c>
       <c r="E20" t="n">
+        <v>227.070007324219</v>
+      </c>
+      <c r="F20" t="n">
+        <v>70.6804962158203</v>
+      </c>
+      <c r="G20" t="n">
         <v>70.9024963378906</v>
       </c>
-      <c r="F20" t="n">
-        <v>227.070007324219</v>
-      </c>
-      <c r="G20" t="n">
-        <v>44.6800003051758</v>
-      </c>
       <c r="H20" t="n">
-        <v>193.169998168945</v>
+        <v>71.9873352050781</v>
       </c>
       <c r="I20" t="n">
-        <v>303.209991455078</v>
+        <v>315.609985351562</v>
       </c>
       <c r="J20" t="n">
-        <v>295.700012207031</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3100.2900390625</v>
-      </c>
-      <c r="L20" t="n">
-        <v>73.7200012207031</v>
+        <v>164.179992675781</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>106.26000213623</v>
+      </c>
+      <c r="B21" t="n">
         <v>205.009994506836</v>
       </c>
-      <c r="B21" t="n">
-        <v>106.26000213623</v>
-      </c>
       <c r="C21" t="n">
+        <v>106.147499084473</v>
+      </c>
+      <c r="D21" t="n">
         <v>158.233993530273</v>
       </c>
-      <c r="D21" t="n">
-        <v>106.147499084473</v>
-      </c>
       <c r="E21" t="n">
+        <v>253.669998168945</v>
+      </c>
+      <c r="F21" t="n">
+        <v>74.1480026245117</v>
+      </c>
+      <c r="G21" t="n">
         <v>74.3974990844727</v>
       </c>
-      <c r="F21" t="n">
-        <v>253.669998168945</v>
-      </c>
-      <c r="G21" t="n">
-        <v>47.2400016784668</v>
-      </c>
       <c r="H21" t="n">
-        <v>190.399993896484</v>
+        <v>95.3840026855469</v>
       </c>
       <c r="I21" t="n">
-        <v>325.529998779297</v>
+        <v>316.75</v>
       </c>
       <c r="J21" t="n">
-        <v>308.529998779297</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3271.1201171875</v>
-      </c>
-      <c r="L21" t="n">
-        <v>77.6699981689453</v>
+        <v>150.289993286133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>129.039993286133</v>
+      </c>
+      <c r="B22" t="n">
         <v>225.529998779297</v>
       </c>
-      <c r="B22" t="n">
-        <v>129.039993286133</v>
-      </c>
       <c r="C22" t="n">
+        <v>133.744995117188</v>
+      </c>
+      <c r="D22" t="n">
         <v>172.548004150391</v>
       </c>
-      <c r="D22" t="n">
-        <v>133.744995117188</v>
-      </c>
       <c r="E22" t="n">
+        <v>293.200012207031</v>
+      </c>
+      <c r="F22" t="n">
+        <v>81.7089996337891</v>
+      </c>
+      <c r="G22" t="n">
         <v>81.4765014648438</v>
       </c>
-      <c r="F22" t="n">
-        <v>293.200012207031</v>
-      </c>
-      <c r="G22" t="n">
-        <v>49.5299987792969</v>
-      </c>
       <c r="H22" t="n">
-        <v>211.990005493164</v>
+        <v>166.106674194336</v>
       </c>
       <c r="I22" t="n">
-        <v>347.660003662109</v>
+        <v>347.149993896484</v>
       </c>
       <c r="J22" t="n">
-        <v>358.190002441406</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3500.31005859375</v>
-      </c>
-      <c r="L22" t="n">
-        <v>82.3499984741211</v>
+        <v>148.389999389648</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>115.809997558594</v>
+      </c>
+      <c r="B23" t="n">
         <v>210.330001831055</v>
       </c>
-      <c r="B23" t="n">
-        <v>115.809997558594</v>
-      </c>
       <c r="C23" t="n">
+        <v>135.304992675781</v>
+      </c>
+      <c r="D23" t="n">
         <v>157.436492919922</v>
       </c>
-      <c r="D23" t="n">
-        <v>135.304992675781</v>
-      </c>
       <c r="E23" t="n">
+        <v>261.899993896484</v>
+      </c>
+      <c r="F23" t="n">
+        <v>73.4800033569336</v>
+      </c>
+      <c r="G23" t="n">
         <v>73.2799987792969</v>
       </c>
-      <c r="F23" t="n">
-        <v>261.899993896484</v>
-      </c>
-      <c r="G23" t="n">
-        <v>49.3699989318848</v>
-      </c>
       <c r="H23" t="n">
-        <v>199.970001220703</v>
+        <v>143.003326416016</v>
       </c>
       <c r="I23" t="n">
-        <v>355</v>
+        <v>364.320007324219</v>
       </c>
       <c r="J23" t="n">
-        <v>338.170013427734</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3363</v>
-      </c>
-      <c r="L23" t="n">
-        <v>79.9199981689453</v>
+        <v>148.020004272461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>108.860000610352</v>
+      </c>
+      <c r="B24" t="n">
         <v>202.470001220703</v>
       </c>
-      <c r="B24" t="n">
-        <v>108.860000610352</v>
-      </c>
       <c r="C24" t="n">
+        <v>125.339996337891</v>
+      </c>
+      <c r="D24" t="n">
         <v>151.807495117188</v>
       </c>
-      <c r="D24" t="n">
-        <v>125.339996337891</v>
-      </c>
       <c r="E24" t="n">
+        <v>263.109985351562</v>
+      </c>
+      <c r="F24" t="n">
+        <v>81.0504989624023</v>
+      </c>
+      <c r="G24" t="n">
         <v>80.8054962158203</v>
       </c>
-      <c r="F24" t="n">
-        <v>263.109985351562</v>
-      </c>
-      <c r="G24" t="n">
-        <v>48.060001373291</v>
-      </c>
       <c r="H24" t="n">
-        <v>181.710006713867</v>
+        <v>129.346664428711</v>
       </c>
       <c r="I24" t="n">
-        <v>357.619995117188</v>
+        <v>349.630004882812</v>
       </c>
       <c r="J24" t="n">
-        <v>288.640014648438</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3269.9599609375</v>
-      </c>
-      <c r="L24" t="n">
-        <v>78.1399993896484</v>
+        <v>130.460006713867</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>119.050003051758</v>
+      </c>
+      <c r="B25" t="n">
         <v>214.070007324219</v>
       </c>
-      <c r="B25" t="n">
-        <v>119.050003051758</v>
-      </c>
       <c r="C25" t="n">
+        <v>134.014999389648</v>
+      </c>
+      <c r="D25" t="n">
         <v>158.401992797852</v>
       </c>
-      <c r="D25" t="n">
-        <v>134.014999389648</v>
-      </c>
       <c r="E25" t="n">
+        <v>276.970001220703</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88.0370025634766</v>
+      </c>
+      <c r="G25" t="n">
         <v>87.7200012207031</v>
       </c>
-      <c r="F25" t="n">
-        <v>276.970001220703</v>
-      </c>
-      <c r="G25" t="n">
-        <v>51.5999984741211</v>
-      </c>
       <c r="H25" t="n">
-        <v>210.350006103516</v>
+        <v>189.199996948242</v>
       </c>
       <c r="I25" t="n">
-        <v>391.769989013672</v>
+        <v>401.579986572266</v>
       </c>
       <c r="J25" t="n">
-        <v>336.510009765625</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3621.6298828125</v>
-      </c>
-      <c r="L25" t="n">
-        <v>87.3300018310547</v>
+        <v>145.649993896484</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>132.690002441406</v>
+      </c>
+      <c r="B26" t="n">
         <v>222.419998168945</v>
       </c>
-      <c r="B26" t="n">
-        <v>132.690002441406</v>
-      </c>
       <c r="C26" t="n">
+        <v>130.550003051758</v>
+      </c>
+      <c r="D26" t="n">
         <v>162.846496582031</v>
       </c>
-      <c r="D26" t="n">
-        <v>130.550003051758</v>
-      </c>
       <c r="E26" t="n">
+        <v>273.160003662109</v>
+      </c>
+      <c r="F26" t="n">
+        <v>87.5940017700195</v>
+      </c>
+      <c r="G26" t="n">
         <v>87.6320037841797</v>
       </c>
-      <c r="F26" t="n">
-        <v>273.160003662109</v>
-      </c>
-      <c r="G26" t="n">
-        <v>54.8400001525879</v>
-      </c>
       <c r="H26" t="n">
-        <v>218.729995727539</v>
+        <v>235.223327636719</v>
       </c>
       <c r="I26" t="n">
-        <v>376.779998779297</v>
+        <v>437.850006103516</v>
       </c>
       <c r="J26" t="n">
-        <v>356.940002441406</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3756.07006835938</v>
-      </c>
-      <c r="L26" t="n">
-        <v>90.7200012207031</v>
+        <v>168.839996337891</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>131.960006713867</v>
+      </c>
+      <c r="B27" t="n">
         <v>231.960006713867</v>
       </c>
-      <c r="B27" t="n">
-        <v>131.960006713867</v>
-      </c>
       <c r="C27" t="n">
+        <v>129.897506713867</v>
+      </c>
+      <c r="D27" t="n">
         <v>160.309997558594</v>
       </c>
-      <c r="D27" t="n">
-        <v>129.897506713867</v>
-      </c>
       <c r="E27" t="n">
+        <v>258.329986572266</v>
+      </c>
+      <c r="F27" t="n">
+        <v>91.7870025634766</v>
+      </c>
+      <c r="G27" t="n">
         <v>91.3679962158203</v>
       </c>
-      <c r="F27" t="n">
-        <v>258.329986572266</v>
-      </c>
-      <c r="G27" t="n">
-        <v>48.1500015258789</v>
-      </c>
       <c r="H27" t="n">
-        <v>193.25</v>
+        <v>264.510009765625</v>
       </c>
       <c r="I27" t="n">
-        <v>352.429992675781</v>
+        <v>450.5</v>
       </c>
       <c r="J27" t="n">
-        <v>316.290008544922</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3714.23999023438</v>
-      </c>
-      <c r="L27" t="n">
-        <v>90.4400024414062</v>
+        <v>207.970001220703</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>121.26000213623</v>
+      </c>
+      <c r="B28" t="n">
         <v>232.380004882812</v>
       </c>
-      <c r="B28" t="n">
-        <v>121.26000213623</v>
-      </c>
       <c r="C28" t="n">
+        <v>137.145004272461</v>
+      </c>
+      <c r="D28" t="n">
         <v>154.646499633789</v>
       </c>
-      <c r="D28" t="n">
-        <v>137.145004272461</v>
-      </c>
       <c r="E28" t="n">
+        <v>257.619995117188</v>
+      </c>
+      <c r="F28" t="n">
+        <v>101.843002319336</v>
+      </c>
+      <c r="G28" t="n">
         <v>101.095497131348</v>
       </c>
-      <c r="F28" t="n">
-        <v>257.619995117188</v>
-      </c>
-      <c r="G28" t="n">
-        <v>48.9900016784668</v>
-      </c>
       <c r="H28" t="n">
-        <v>212.389999389648</v>
+        <v>225.16667175293</v>
       </c>
       <c r="I28" t="n">
-        <v>331</v>
+        <v>469.869995117188</v>
       </c>
       <c r="J28" t="n">
-        <v>353.850006103516</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3811.14990234375</v>
-      </c>
-      <c r="L28" t="n">
-        <v>92.5100021362305</v>
+        <v>204.889999389648</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>122.150001525879</v>
+      </c>
+      <c r="B29" t="n">
         <v>235.770004272461</v>
       </c>
-      <c r="B29" t="n">
-        <v>122.150001525879</v>
-      </c>
       <c r="C29" t="n">
+        <v>133.482498168945</v>
+      </c>
+      <c r="D29" t="n">
         <v>154.703994750977</v>
       </c>
-      <c r="D29" t="n">
-        <v>133.482498168945</v>
-      </c>
       <c r="E29" t="n">
+        <v>294.529998779297</v>
+      </c>
+      <c r="F29" t="n">
+        <v>103.431503295898</v>
+      </c>
+      <c r="G29" t="n">
         <v>103.125999450684</v>
       </c>
-      <c r="F29" t="n">
-        <v>294.529998779297</v>
-      </c>
-      <c r="G29" t="n">
-        <v>52.7099990844727</v>
-      </c>
       <c r="H29" t="n">
-        <v>211.729995727539</v>
+        <v>222.643325805664</v>
       </c>
       <c r="I29" t="n">
-        <v>352.480010986328</v>
+        <v>463.660003662109</v>
       </c>
       <c r="J29" t="n">
-        <v>356.049987792969</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3972.88989257812</v>
-      </c>
-      <c r="L29" t="n">
-        <v>95.1500015258789</v>
+        <v>186.820007324219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>131.460006713867</v>
+      </c>
+      <c r="B30" t="n">
         <v>252.179992675781</v>
       </c>
-      <c r="B30" t="n">
-        <v>131.460006713867</v>
-      </c>
       <c r="C30" t="n">
+        <v>150.095001220703</v>
+      </c>
+      <c r="D30" t="n">
         <v>173.371002197266</v>
       </c>
-      <c r="D30" t="n">
-        <v>150.095001220703</v>
-      </c>
       <c r="E30" t="n">
+        <v>325.079986572266</v>
+      </c>
+      <c r="F30" t="n">
+        <v>120.505996704102</v>
+      </c>
+      <c r="G30" t="n">
         <v>117.675003051758</v>
       </c>
-      <c r="F30" t="n">
-        <v>325.079986572266</v>
-      </c>
-      <c r="G30" t="n">
-        <v>53.9799995422363</v>
-      </c>
       <c r="H30" t="n">
-        <v>233.559997558594</v>
+        <v>236.479995727539</v>
       </c>
       <c r="I30" t="n">
-        <v>372.089996337891</v>
+        <v>456.200012207031</v>
       </c>
       <c r="J30" t="n">
-        <v>382.059997558594</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4181.169921875</v>
-      </c>
-      <c r="L30" t="n">
-        <v>99.1900024414062</v>
+        <v>182.770004272461</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>124.610000610352</v>
+      </c>
+      <c r="B31" t="n">
         <v>249.679992675781</v>
       </c>
-      <c r="B31" t="n">
-        <v>124.610000610352</v>
-      </c>
       <c r="C31" t="n">
+        <v>162.445007324219</v>
+      </c>
+      <c r="D31" t="n">
         <v>161.153503417969</v>
       </c>
-      <c r="D31" t="n">
-        <v>162.445007324219</v>
-      </c>
       <c r="E31" t="n">
+        <v>328.730010986328</v>
+      </c>
+      <c r="F31" t="n">
+        <v>120.578002929688</v>
+      </c>
+      <c r="G31" t="n">
         <v>117.842498779297</v>
       </c>
-      <c r="F31" t="n">
-        <v>328.730010986328</v>
-      </c>
-      <c r="G31" t="n">
-        <v>55.2900009155273</v>
-      </c>
       <c r="H31" t="n">
-        <v>227.300003051758</v>
+        <v>208.406661987305</v>
       </c>
       <c r="I31" t="n">
-        <v>378.269989013672</v>
+        <v>472.329986572266</v>
       </c>
       <c r="J31" t="n">
-        <v>360.579986572266</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4204.10986328125</v>
-      </c>
-      <c r="L31" t="n">
-        <v>100.650001525879</v>
+        <v>199.740005493164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>136.960006713867</v>
+      </c>
+      <c r="B32" t="n">
         <v>270.899993896484</v>
       </c>
-      <c r="B32" t="n">
-        <v>136.960006713867</v>
-      </c>
       <c r="C32" t="n">
+        <v>200.024993896484</v>
+      </c>
+      <c r="D32" t="n">
         <v>172.007995605469</v>
       </c>
-      <c r="D32" t="n">
-        <v>200.024993896484</v>
-      </c>
       <c r="E32" t="n">
+        <v>347.709991455078</v>
+      </c>
+      <c r="F32" t="n">
+        <v>125.31600189209</v>
+      </c>
+      <c r="G32" t="n">
         <v>122.089500427246</v>
       </c>
-      <c r="F32" t="n">
-        <v>347.709991455078</v>
-      </c>
-      <c r="G32" t="n">
-        <v>54.1100006103516</v>
-      </c>
       <c r="H32" t="n">
-        <v>233.820007324219</v>
+        <v>226.566665649414</v>
       </c>
       <c r="I32" t="n">
-        <v>395.670013427734</v>
+        <v>476.839996337891</v>
       </c>
       <c r="J32" t="n">
-        <v>365.089996337891</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4297.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>101.190002441406</v>
+        <v>229.520004272461</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>145.860000610352</v>
+      </c>
+      <c r="B33" t="n">
         <v>284.910003662109</v>
       </c>
-      <c r="B33" t="n">
-        <v>145.860000610352</v>
-      </c>
       <c r="C33" t="n">
+        <v>194.990005493164</v>
+      </c>
+      <c r="D33" t="n">
         <v>166.379501342773</v>
       </c>
-      <c r="D33" t="n">
-        <v>194.990005493164</v>
-      </c>
       <c r="E33" t="n">
+        <v>356.299987792969</v>
+      </c>
+      <c r="F33" t="n">
+        <v>135.220993041992</v>
+      </c>
+      <c r="G33" t="n">
         <v>134.726501464844</v>
       </c>
-      <c r="F33" t="n">
-        <v>356.299987792969</v>
-      </c>
-      <c r="G33" t="n">
-        <v>57.0299987792969</v>
-      </c>
       <c r="H33" t="n">
-        <v>246.389999389648</v>
+        <v>229.066665649414</v>
       </c>
       <c r="I33" t="n">
-        <v>429.720001220703</v>
+        <v>485.399993896484</v>
       </c>
       <c r="J33" t="n">
-        <v>385.940002441406</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4395.259765625</v>
-      </c>
-      <c r="L33" t="n">
-        <v>102.110000610352</v>
+        <v>243.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>151.830001831055</v>
+      </c>
+      <c r="B34" t="n">
         <v>301.880004882812</v>
       </c>
-      <c r="B34" t="n">
-        <v>151.830001831055</v>
-      </c>
       <c r="C34" t="n">
+        <v>223.850006103516</v>
+      </c>
+      <c r="D34" t="n">
         <v>173.539505004883</v>
       </c>
-      <c r="D34" t="n">
-        <v>223.850006103516</v>
-      </c>
       <c r="E34" t="n">
+        <v>379.380004882812</v>
+      </c>
+      <c r="F34" t="n">
+        <v>145.462005615234</v>
+      </c>
+      <c r="G34" t="n">
         <v>144.697494506836</v>
       </c>
-      <c r="F34" t="n">
-        <v>379.380004882812</v>
-      </c>
-      <c r="G34" t="n">
-        <v>56.310001373291</v>
-      </c>
       <c r="H34" t="n">
-        <v>229.100006103516</v>
+        <v>245.240005493164</v>
       </c>
       <c r="I34" t="n">
-        <v>455.489990234375</v>
+        <v>497.209991455078</v>
       </c>
       <c r="J34" t="n">
-        <v>346.230010986328</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4522.68017578125</v>
-      </c>
-      <c r="L34" t="n">
-        <v>104.330001831055</v>
+        <v>258.290008544922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="B35" t="n">
         <v>281.920013427734</v>
       </c>
-      <c r="B35" t="n">
-        <v>141.5</v>
-      </c>
       <c r="C35" t="n">
+        <v>207.160003662109</v>
+      </c>
+      <c r="D35" t="n">
         <v>164.251998901367</v>
       </c>
-      <c r="D35" t="n">
-        <v>207.160003662109</v>
-      </c>
       <c r="E35" t="n">
+        <v>339.390014648438</v>
+      </c>
+      <c r="F35" t="n">
+        <v>133.265502929688</v>
+      </c>
+      <c r="G35" t="n">
         <v>133.675994873047</v>
       </c>
-      <c r="F35" t="n">
-        <v>339.390014648438</v>
-      </c>
-      <c r="G35" t="n">
-        <v>52.4700012207031</v>
-      </c>
       <c r="H35" t="n">
-        <v>222.75</v>
+        <v>258.493347167969</v>
       </c>
       <c r="I35" t="n">
-        <v>449.350006103516</v>
+        <v>484.929992675781</v>
       </c>
       <c r="J35" t="n">
-        <v>347.679992675781</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4307.5400390625</v>
-      </c>
-      <c r="L35" t="n">
-        <v>99.9199981689453</v>
+        <v>231.050003051758</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
+        <v>149.800003051758</v>
+      </c>
+      <c r="B36" t="n">
         <v>331.619995117188</v>
       </c>
-      <c r="B36" t="n">
-        <v>149.800003051758</v>
-      </c>
       <c r="C36" t="n">
+        <v>255.669998168945</v>
+      </c>
+      <c r="D36" t="n">
         <v>168.621505737305</v>
       </c>
-      <c r="D36" t="n">
-        <v>255.669998168945</v>
-      </c>
       <c r="E36" t="n">
+        <v>323.570007324219</v>
+      </c>
+      <c r="F36" t="n">
+        <v>148.270492553711</v>
+      </c>
+      <c r="G36" t="n">
         <v>148.046005249023</v>
       </c>
-      <c r="F36" t="n">
-        <v>323.570007324219</v>
-      </c>
-      <c r="G36" t="n">
-        <v>56.3699989318848</v>
-      </c>
       <c r="H36" t="n">
-        <v>211.770004272461</v>
+        <v>371.333343505859</v>
       </c>
       <c r="I36" t="n">
-        <v>491.540008544922</v>
+        <v>531.669982910156</v>
       </c>
       <c r="J36" t="n">
-        <v>335.519989013672</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4605.3798828125</v>
-      </c>
-      <c r="L36" t="n">
-        <v>105.309997558594</v>
+        <v>254.759994506836</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
+        <v>165.300003051758</v>
+      </c>
+      <c r="B37" t="n">
         <v>330.589996337891</v>
       </c>
-      <c r="B37" t="n">
-        <v>165.300003051758</v>
-      </c>
       <c r="C37" t="n">
+        <v>326.760009765625</v>
+      </c>
+      <c r="D37" t="n">
         <v>175.353500366211</v>
       </c>
-      <c r="D37" t="n">
-        <v>326.760009765625</v>
-      </c>
       <c r="E37" t="n">
+        <v>324.459991455078</v>
+      </c>
+      <c r="F37" t="n">
+        <v>142.451995849609</v>
+      </c>
+      <c r="G37" t="n">
         <v>141.897506713867</v>
       </c>
-      <c r="F37" t="n">
-        <v>324.459991455078</v>
-      </c>
-      <c r="G37" t="n">
-        <v>52.4500007629395</v>
-      </c>
       <c r="H37" t="n">
-        <v>193.770004272461</v>
+        <v>381.586669921875</v>
       </c>
       <c r="I37" t="n">
-        <v>539.380004882812</v>
+        <v>553.679992675781</v>
       </c>
       <c r="J37" t="n">
-        <v>314.920013427734</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4567</v>
-      </c>
-      <c r="L37" t="n">
-        <v>102.879997253418</v>
+        <v>248.039993286133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>177.570007324219</v>
+      </c>
+      <c r="B38" t="n">
         <v>336.320007324219</v>
       </c>
-      <c r="B38" t="n">
-        <v>177.570007324219</v>
-      </c>
       <c r="C38" t="n">
+        <v>294.109985351562</v>
+      </c>
+      <c r="D38" t="n">
         <v>166.716995239258</v>
       </c>
-      <c r="D38" t="n">
-        <v>294.109985351562</v>
-      </c>
       <c r="E38" t="n">
+        <v>336.350006103516</v>
+      </c>
+      <c r="F38" t="n">
+        <v>144.679504394531</v>
+      </c>
+      <c r="G38" t="n">
         <v>144.852005004883</v>
       </c>
-      <c r="F38" t="n">
-        <v>336.350006103516</v>
-      </c>
-      <c r="G38" t="n">
-        <v>59.2099990844727</v>
-      </c>
       <c r="H38" t="n">
-        <v>216.710006713867</v>
+        <v>352.260009765625</v>
       </c>
       <c r="I38" t="n">
-        <v>567.700012207031</v>
+        <v>665.409973144531</v>
       </c>
       <c r="J38" t="n">
-        <v>359.320007324219</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4766.18017578125</v>
-      </c>
-      <c r="L38" t="n">
-        <v>105.779998779297</v>
+        <v>276.220001220703</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>174.779998779297</v>
+      </c>
+      <c r="B39" t="n">
         <v>310.980010986328</v>
       </c>
-      <c r="B39" t="n">
-        <v>174.779998779297</v>
-      </c>
       <c r="C39" t="n">
+        <v>244.860000610352</v>
+      </c>
+      <c r="D39" t="n">
         <v>149.573501586914</v>
       </c>
-      <c r="D39" t="n">
-        <v>244.860000610352</v>
-      </c>
       <c r="E39" t="n">
+        <v>313.260009765625</v>
+      </c>
+      <c r="F39" t="n">
+        <v>135.698501586914</v>
+      </c>
+      <c r="G39" t="n">
         <v>135.303497314453</v>
       </c>
-      <c r="F39" t="n">
-        <v>313.260009765625</v>
-      </c>
-      <c r="G39" t="n">
-        <v>61.0099983215332</v>
-      </c>
       <c r="H39" t="n">
-        <v>226.169998168945</v>
+        <v>312.239990234375</v>
       </c>
       <c r="I39" t="n">
-        <v>505.130004882812</v>
+        <v>585.880004882812</v>
       </c>
       <c r="J39" t="n">
-        <v>386.380004882812</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4515.5498046875</v>
-      </c>
-      <c r="L39" t="n">
-        <v>100.970001220703</v>
+        <v>245.389999389648</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>165.119995117188</v>
+      </c>
+      <c r="B40" t="n">
         <v>298.790008544922</v>
       </c>
-      <c r="B40" t="n">
-        <v>165.119995117188</v>
-      </c>
       <c r="C40" t="n">
+        <v>243.850006103516</v>
+      </c>
+      <c r="D40" t="n">
         <v>153.563003540039</v>
       </c>
-      <c r="D40" t="n">
-        <v>243.850006103516</v>
-      </c>
       <c r="E40" t="n">
+        <v>211.029998779297</v>
+      </c>
+      <c r="F40" t="n">
+        <v>134.891006469727</v>
+      </c>
+      <c r="G40" t="n">
         <v>135.057006835938</v>
       </c>
-      <c r="F40" t="n">
-        <v>211.029998779297</v>
-      </c>
-      <c r="G40" t="n">
-        <v>62.2400016784668</v>
-      </c>
       <c r="H40" t="n">
-        <v>216.119995117188</v>
+        <v>290.143341064453</v>
       </c>
       <c r="I40" t="n">
-        <v>519.25</v>
+        <v>587.440002441406</v>
       </c>
       <c r="J40" t="n">
-        <v>360.820007324219</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4373.93994140625</v>
-      </c>
-      <c r="L40" t="n">
-        <v>97.879997253418</v>
+        <v>249.949996948242</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>174.610000610352</v>
+      </c>
+      <c r="B41" t="n">
         <v>308.309997558594</v>
       </c>
-      <c r="B41" t="n">
-        <v>174.610000610352</v>
-      </c>
       <c r="C41" t="n">
+        <v>272.859985351562</v>
+      </c>
+      <c r="D41" t="n">
         <v>162.997497558594</v>
       </c>
-      <c r="D41" t="n">
-        <v>272.859985351562</v>
-      </c>
       <c r="E41" t="n">
+        <v>222.360000610352</v>
+      </c>
+      <c r="F41" t="n">
+        <v>139.649505615234</v>
+      </c>
+      <c r="G41" t="n">
         <v>139.067504882812</v>
       </c>
-      <c r="F41" t="n">
-        <v>222.360000610352</v>
-      </c>
-      <c r="G41" t="n">
-        <v>62</v>
-      </c>
       <c r="H41" t="n">
-        <v>221.770004272461</v>
+        <v>359.200012207031</v>
       </c>
       <c r="I41" t="n">
-        <v>575.849975585938</v>
+        <v>629.679992675781</v>
       </c>
       <c r="J41" t="n">
-        <v>357.380004882812</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4530.41015625</v>
-      </c>
-      <c r="L41" t="n">
-        <v>99.7799987792969</v>
+        <v>286.369995117188</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>157.649993896484</v>
+      </c>
+      <c r="B42" t="n">
         <v>277.519989013672</v>
       </c>
-      <c r="B42" t="n">
-        <v>157.649993896484</v>
-      </c>
       <c r="C42" t="n">
+        <v>185.470001220703</v>
+      </c>
+      <c r="D42" t="n">
         <v>124.28150177002</v>
       </c>
-      <c r="D42" t="n">
-        <v>185.470001220703</v>
-      </c>
       <c r="E42" t="n">
+        <v>200.470001220703</v>
+      </c>
+      <c r="F42" t="n">
+        <v>114.966499328613</v>
+      </c>
+      <c r="G42" t="n">
         <v>114.109497070312</v>
       </c>
-      <c r="F42" t="n">
-        <v>200.470001220703</v>
-      </c>
-      <c r="G42" t="n">
-        <v>64.6100006103516</v>
-      </c>
       <c r="H42" t="n">
-        <v>213.130004882812</v>
+        <v>290.253326416016</v>
       </c>
       <c r="I42" t="n">
-        <v>531.719970703125</v>
+        <v>554.390014648438</v>
       </c>
       <c r="J42" t="n">
-        <v>363.380004882812</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4131.93017578125</v>
-      </c>
-      <c r="L42" t="n">
-        <v>91.7300033569336</v>
+        <v>292.130004882812</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>148.839996337891</v>
+      </c>
+      <c r="B43" t="n">
         <v>271.869995117188</v>
       </c>
-      <c r="B43" t="n">
-        <v>148.839996337891</v>
-      </c>
       <c r="C43" t="n">
+        <v>186.720001220703</v>
+      </c>
+      <c r="D43" t="n">
         <v>120.209503173828</v>
       </c>
-      <c r="D43" t="n">
-        <v>186.720001220703</v>
-      </c>
       <c r="E43" t="n">
+        <v>193.639999389648</v>
+      </c>
+      <c r="F43" t="n">
+        <v>114.039001464844</v>
+      </c>
+      <c r="G43" t="n">
         <v>113.762001037598</v>
       </c>
-      <c r="F43" t="n">
-        <v>193.639999389648</v>
-      </c>
-      <c r="G43" t="n">
-        <v>63.3800010681152</v>
-      </c>
       <c r="H43" t="n">
-        <v>212.169998168945</v>
+        <v>252.753326416016</v>
       </c>
       <c r="I43" t="n">
-        <v>466.220001220703</v>
+        <v>580.130004882812</v>
       </c>
       <c r="J43" t="n">
-        <v>357.869995117188</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4132.14990234375</v>
-      </c>
-      <c r="L43" t="n">
-        <v>92.1399993896484</v>
+        <v>313.440002441406</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
+        <v>136.720001220703</v>
+      </c>
+      <c r="B44" t="n">
         <v>256.829986572266</v>
       </c>
-      <c r="B44" t="n">
-        <v>136.720001220703</v>
-      </c>
       <c r="C44" t="n">
+        <v>151.589996337891</v>
+      </c>
+      <c r="D44" t="n">
         <v>106.209999084473</v>
       </c>
-      <c r="D44" t="n">
-        <v>151.589996337891</v>
-      </c>
       <c r="E44" t="n">
+        <v>161.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>109.372497558594</v>
+      </c>
+      <c r="G44" t="n">
         <v>108.962997436523</v>
       </c>
-      <c r="F44" t="n">
-        <v>161.25</v>
-      </c>
-      <c r="G44" t="n">
-        <v>62.9099998474121</v>
-      </c>
       <c r="H44" t="n">
-        <v>196.889999389648</v>
+        <v>224.473327636719</v>
       </c>
       <c r="I44" t="n">
-        <v>479.279998779297</v>
+        <v>485.809997558594</v>
       </c>
       <c r="J44" t="n">
-        <v>315.480010986328</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3785.3798828125</v>
-      </c>
-      <c r="L44" t="n">
-        <v>83.8899993896484</v>
+        <v>324.230010986328</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>162.509994506836</v>
+      </c>
+      <c r="B45" t="n">
         <v>280.739990234375</v>
       </c>
-      <c r="B45" t="n">
-        <v>162.509994506836</v>
-      </c>
       <c r="C45" t="n">
+        <v>181.630004882812</v>
+      </c>
+      <c r="D45" t="n">
         <v>134.949996948242</v>
       </c>
-      <c r="D45" t="n">
-        <v>181.630004882812</v>
-      </c>
       <c r="E45" t="n">
+        <v>159.100006103516</v>
+      </c>
+      <c r="F45" t="n">
+        <v>116.639999389648</v>
+      </c>
+      <c r="G45" t="n">
         <v>116.319999694824</v>
       </c>
-      <c r="F45" t="n">
-        <v>159.100006103516</v>
-      </c>
-      <c r="G45" t="n">
-        <v>64.1699981689453</v>
-      </c>
       <c r="H45" t="n">
-        <v>212.110000610352</v>
+        <v>297.149993896484</v>
       </c>
       <c r="I45" t="n">
-        <v>541.299987792969</v>
+        <v>535.47998046875</v>
       </c>
       <c r="J45" t="n">
-        <v>353.790008544922</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4130.2900390625</v>
-      </c>
-      <c r="L45" t="n">
-        <v>89.8199996948242</v>
+        <v>329.690002441406</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>157.220001220703</v>
+      </c>
+      <c r="B46" t="n">
         <v>261.470001220703</v>
       </c>
-      <c r="B46" t="n">
-        <v>157.220001220703</v>
-      </c>
       <c r="C46" t="n">
+        <v>150.940002441406</v>
+      </c>
+      <c r="D46" t="n">
         <v>126.769996643066</v>
       </c>
-      <c r="D46" t="n">
-        <v>150.940002441406</v>
-      </c>
       <c r="E46" t="n">
+        <v>162.929992675781</v>
+      </c>
+      <c r="F46" t="n">
+        <v>109.150001525879</v>
+      </c>
+      <c r="G46" t="n">
         <v>108.220001220703</v>
       </c>
-      <c r="F46" t="n">
-        <v>162.929992675781</v>
-      </c>
-      <c r="G46" t="n">
-        <v>61.7099990844727</v>
-      </c>
       <c r="H46" t="n">
-        <v>198.710006713867</v>
+        <v>275.609985351562</v>
       </c>
       <c r="I46" t="n">
-        <v>522.099975585938</v>
+        <v>499.109985351562</v>
       </c>
       <c r="J46" t="n">
-        <v>324.369995117188</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3955</v>
-      </c>
-      <c r="L46" t="n">
-        <v>85.9000015258789</v>
+        <v>301.230010986328</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>138.199996948242</v>
+      </c>
+      <c r="B47" t="n">
         <v>232.899993896484</v>
       </c>
-      <c r="B47" t="n">
-        <v>138.199996948242</v>
-      </c>
       <c r="C47" t="n">
+        <v>121.389999389648</v>
+      </c>
+      <c r="D47" t="n">
         <v>113</v>
       </c>
-      <c r="D47" t="n">
-        <v>121.389999389648</v>
-      </c>
       <c r="E47" t="n">
+        <v>135.679992675781</v>
+      </c>
+      <c r="F47" t="n">
+        <v>96.1500015258789</v>
+      </c>
+      <c r="G47" t="n">
         <v>95.6500015258789</v>
       </c>
-      <c r="F47" t="n">
-        <v>135.679992675781</v>
-      </c>
-      <c r="G47" t="n">
-        <v>56.0200004577637</v>
-      </c>
       <c r="H47" t="n">
-        <v>177.649993896484</v>
+        <v>265.25</v>
       </c>
       <c r="I47" t="n">
-        <v>472.269989013672</v>
+        <v>444.010009765625</v>
       </c>
       <c r="J47" t="n">
-        <v>284.339996337891</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3585.6201171875</v>
-      </c>
-      <c r="L47" t="n">
-        <v>77.8300018310547</v>
+        <v>323.350006103516</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>153.339996337891</v>
+      </c>
+      <c r="B48" t="n">
         <v>232.130004882812</v>
       </c>
-      <c r="B48" t="n">
-        <v>153.339996337891</v>
-      </c>
       <c r="C48" t="n">
+        <v>134.970001220703</v>
+      </c>
+      <c r="D48" t="n">
         <v>102.440002441406</v>
       </c>
-      <c r="D48" t="n">
-        <v>134.970001220703</v>
-      </c>
       <c r="E48" t="n">
+        <v>93.1600036621094</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.6600036621094</v>
+      </c>
+      <c r="G48" t="n">
         <v>94.5100021362305</v>
       </c>
-      <c r="F48" t="n">
-        <v>93.1600036621094</v>
-      </c>
-      <c r="G48" t="n">
-        <v>59.8499984741211</v>
-      </c>
       <c r="H48" t="n">
-        <v>207.160003662109</v>
+        <v>227.539993286133</v>
       </c>
       <c r="I48" t="n">
-        <v>501.5</v>
+        <v>470.119995117188</v>
       </c>
       <c r="J48" t="n">
-        <v>328.179992675781</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3871.97998046875</v>
-      </c>
-      <c r="L48" t="n">
-        <v>82.7699966430664</v>
+        <v>362.089996337891</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>148.029998779297</v>
+      </c>
+      <c r="B49" t="n">
         <v>255.139999389648</v>
       </c>
-      <c r="B49" t="n">
-        <v>148.029998779297</v>
-      </c>
       <c r="C49" t="n">
+        <v>169.229995727539</v>
+      </c>
+      <c r="D49" t="n">
         <v>96.5400009155273</v>
       </c>
-      <c r="D49" t="n">
-        <v>169.229995727539</v>
-      </c>
       <c r="E49" t="n">
+        <v>118.099998474121</v>
+      </c>
+      <c r="F49" t="n">
+        <v>101.449996948242</v>
+      </c>
+      <c r="G49" t="n">
         <v>100.98999786377</v>
       </c>
-      <c r="F49" t="n">
-        <v>118.099998474121</v>
-      </c>
-      <c r="G49" t="n">
-        <v>63.6100006103516</v>
-      </c>
       <c r="H49" t="n">
-        <v>217</v>
+        <v>194.699996948242</v>
       </c>
       <c r="I49" t="n">
-        <v>539.25</v>
+        <v>551.030029296875</v>
       </c>
       <c r="J49" t="n">
-        <v>356.399993896484</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4080.11010742188</v>
-      </c>
-      <c r="L49" t="n">
-        <v>89.6699981689453</v>
+        <v>371.079986572266</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>129.929992675781</v>
+      </c>
+      <c r="B50" t="n">
         <v>239.820007324219</v>
       </c>
-      <c r="B50" t="n">
-        <v>129.929992675781</v>
-      </c>
       <c r="C50" t="n">
+        <v>146.139999389648</v>
+      </c>
+      <c r="D50" t="n">
         <v>84</v>
       </c>
-      <c r="D50" t="n">
-        <v>146.139999389648</v>
-      </c>
       <c r="E50" t="n">
+        <v>120.339996337891</v>
+      </c>
+      <c r="F50" t="n">
+        <v>88.7300033569336</v>
+      </c>
+      <c r="G50" t="n">
         <v>88.2300033569336</v>
       </c>
-      <c r="F50" t="n">
-        <v>120.339996337891</v>
-      </c>
-      <c r="G50" t="n">
-        <v>63.6100006103516</v>
-      </c>
       <c r="H50" t="n">
-        <v>207.759994506836</v>
+        <v>123.180000305176</v>
       </c>
       <c r="I50" t="n">
-        <v>456.5</v>
+        <v>559.130004882812</v>
       </c>
       <c r="J50" t="n">
-        <v>347.730010986328</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3839.5</v>
-      </c>
-      <c r="L50" t="n">
-        <v>84.879997253418</v>
+        <v>365.839996337891</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>144.289993286133</v>
+      </c>
+      <c r="B51" t="n">
         <v>247.809997558594</v>
       </c>
-      <c r="B51" t="n">
-        <v>144.289993286133</v>
-      </c>
       <c r="C51" t="n">
+        <v>195.369995117188</v>
+      </c>
+      <c r="D51" t="n">
         <v>103.129997253418</v>
       </c>
-      <c r="D51" t="n">
-        <v>195.369995117188</v>
-      </c>
       <c r="E51" t="n">
+        <v>148.970001220703</v>
+      </c>
+      <c r="F51" t="n">
+        <v>99.870002746582</v>
+      </c>
+      <c r="G51" t="n">
         <v>98.8399963378906</v>
       </c>
-      <c r="F51" t="n">
-        <v>148.970001220703</v>
-      </c>
-      <c r="G51" t="n">
-        <v>61.3199996948242</v>
-      </c>
       <c r="H51" t="n">
-        <v>230.210006713867</v>
+        <v>173.220001220703</v>
       </c>
       <c r="I51" t="n">
-        <v>511.140014648438</v>
+        <v>585.010009765625</v>
       </c>
       <c r="J51" t="n">
-        <v>370.600006103516</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4076.60009765625</v>
-      </c>
-      <c r="L51" t="n">
-        <v>91.25</v>
+        <v>344.149993896484</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>147.410003662109</v>
+      </c>
+      <c r="B52" t="n">
         <v>249.419998168945</v>
       </c>
-      <c r="B52" t="n">
-        <v>147.410003662109</v>
-      </c>
       <c r="C52" t="n">
+        <v>232.160003662109</v>
+      </c>
+      <c r="D52" t="n">
         <v>94.2300033569336</v>
       </c>
-      <c r="D52" t="n">
-        <v>232.160003662109</v>
-      </c>
       <c r="E52" t="n">
+        <v>174.940002441406</v>
+      </c>
+      <c r="F52" t="n">
+        <v>90.3000030517578</v>
+      </c>
+      <c r="G52" t="n">
         <v>90.0599975585938</v>
       </c>
-      <c r="F52" t="n">
-        <v>174.940002441406</v>
-      </c>
-      <c r="G52" t="n">
-        <v>59.5099983215332</v>
-      </c>
       <c r="H52" t="n">
-        <v>219.940002441406</v>
+        <v>205.710006713867</v>
       </c>
       <c r="I52" t="n">
-        <v>484.179992675781</v>
+        <v>594.289978027344</v>
       </c>
       <c r="J52" t="n">
-        <v>355.290008544922</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3970.14990234375</v>
-      </c>
-      <c r="L52" t="n">
-        <v>88.2200012207031</v>
+        <v>311.220001220703</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
+        <v>164.899993896484</v>
+      </c>
+      <c r="B53" t="n">
         <v>288.299987792969</v>
       </c>
-      <c r="B53" t="n">
-        <v>164.899993896484</v>
-      </c>
       <c r="C53" t="n">
+        <v>277.769989013672</v>
+      </c>
+      <c r="D53" t="n">
         <v>103.290000915527</v>
       </c>
-      <c r="D53" t="n">
-        <v>277.769989013672</v>
-      </c>
       <c r="E53" t="n">
+        <v>211.940002441406</v>
+      </c>
+      <c r="F53" t="n">
+        <v>104</v>
+      </c>
+      <c r="G53" t="n">
         <v>103.730003356934</v>
       </c>
-      <c r="F53" t="n">
-        <v>211.940002441406</v>
-      </c>
-      <c r="G53" t="n">
-        <v>62.0299987792969</v>
-      </c>
       <c r="H53" t="n">
-        <v>225.460006713867</v>
+        <v>207.460006713867</v>
       </c>
       <c r="I53" t="n">
-        <v>496.869995117188</v>
+        <v>641.539978027344</v>
       </c>
       <c r="J53" t="n">
-        <v>363.410003662109</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4109.31005859375</v>
-      </c>
-      <c r="L53" t="n">
-        <v>91.1600036621094</v>
+        <v>343.420013427734</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>169.679992675781</v>
+      </c>
+      <c r="B54" t="n">
         <v>307.260009765625</v>
       </c>
-      <c r="B54" t="n">
-        <v>169.679992675781</v>
-      </c>
       <c r="C54" t="n">
+        <v>277.489990234375</v>
+      </c>
+      <c r="D54" t="n">
         <v>105.449996948242</v>
       </c>
-      <c r="D54" t="n">
-        <v>277.489990234375</v>
-      </c>
       <c r="E54" t="n">
+        <v>240.320007324219</v>
+      </c>
+      <c r="F54" t="n">
+        <v>108.220001220703</v>
+      </c>
+      <c r="G54" t="n">
         <v>107.339996337891</v>
       </c>
-      <c r="F54" t="n">
-        <v>240.320007324219</v>
-      </c>
-      <c r="G54" t="n">
-        <v>64.1500015258789</v>
-      </c>
       <c r="H54" t="n">
-        <v>232.729995727539</v>
+        <v>164.309997558594</v>
       </c>
       <c r="I54" t="n">
-        <v>503.220001220703</v>
+        <v>626.5</v>
       </c>
       <c r="J54" t="n">
-        <v>380.029998779297</v>
-      </c>
-      <c r="K54" t="n">
-        <v>4169.47998046875</v>
-      </c>
-      <c r="L54" t="n">
-        <v>92.5899963378906</v>
+        <v>395.859985351562</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>177.25</v>
+      </c>
+      <c r="B55" t="n">
         <v>328.390014648438</v>
       </c>
-      <c r="B55" t="n">
-        <v>177.25</v>
-      </c>
       <c r="C55" t="n">
+        <v>378.339996337891</v>
+      </c>
+      <c r="D55" t="n">
         <v>120.580001831055</v>
       </c>
-      <c r="D55" t="n">
-        <v>378.339996337891</v>
-      </c>
       <c r="E55" t="n">
+        <v>264.720001220703</v>
+      </c>
+      <c r="F55" t="n">
+        <v>123.370002746582</v>
+      </c>
+      <c r="G55" t="n">
         <v>122.870002746582</v>
       </c>
-      <c r="F55" t="n">
-        <v>264.720001220703</v>
-      </c>
-      <c r="G55" t="n">
-        <v>59.6599998474121</v>
-      </c>
       <c r="H55" t="n">
-        <v>221.029998779297</v>
+        <v>203.929992675781</v>
       </c>
       <c r="I55" t="n">
-        <v>511.559997558594</v>
+        <v>807.960021972656</v>
       </c>
       <c r="J55" t="n">
-        <v>365.019989013672</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4179.830078125</v>
-      </c>
-      <c r="L55" t="n">
-        <v>91.620002746582</v>
+        <v>429.459991455078</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
+        <v>193.970001220703</v>
+      </c>
+      <c r="B56" t="n">
         <v>340.540008544922</v>
       </c>
-      <c r="B56" t="n">
-        <v>193.970001220703</v>
-      </c>
       <c r="C56" t="n">
+        <v>423.019989013672</v>
+      </c>
+      <c r="D56" t="n">
         <v>130.360000610352</v>
       </c>
-      <c r="D56" t="n">
-        <v>423.019989013672</v>
-      </c>
       <c r="E56" t="n">
+        <v>286.980010986328</v>
+      </c>
+      <c r="F56" t="n">
+        <v>120.970001220703</v>
+      </c>
+      <c r="G56" t="n">
         <v>119.699996948242</v>
       </c>
-      <c r="F56" t="n">
-        <v>286.980010986328</v>
-      </c>
-      <c r="G56" t="n">
-        <v>60.2200012207031</v>
-      </c>
       <c r="H56" t="n">
-        <v>237.479995727539</v>
+        <v>261.769989013672</v>
       </c>
       <c r="I56" t="n">
-        <v>538.380004882812</v>
+        <v>867.429992675781</v>
       </c>
       <c r="J56" t="n">
-        <v>393.299987792969</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4450.3798828125</v>
-      </c>
-      <c r="L56" t="n">
-        <v>95.9400024414062</v>
+        <v>468.980010986328</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>196.449996948242</v>
+      </c>
+      <c r="B57" t="n">
         <v>335.920013427734</v>
       </c>
-      <c r="B57" t="n">
-        <v>196.449996948242</v>
-      </c>
       <c r="C57" t="n">
+        <v>467.290008544922</v>
+      </c>
+      <c r="D57" t="n">
         <v>133.679992675781</v>
       </c>
-      <c r="D57" t="n">
-        <v>467.290008544922</v>
-      </c>
       <c r="E57" t="n">
+        <v>318.600006103516</v>
+      </c>
+      <c r="F57" t="n">
+        <v>133.110000610352</v>
+      </c>
+      <c r="G57" t="n">
         <v>132.720001220703</v>
       </c>
-      <c r="F57" t="n">
-        <v>318.600006103516</v>
-      </c>
-      <c r="G57" t="n">
-        <v>61.9300003051758</v>
-      </c>
       <c r="H57" t="n">
-        <v>237.729995727539</v>
+        <v>267.429992675781</v>
       </c>
       <c r="I57" t="n">
-        <v>560.669982910156</v>
+        <v>898.650024414062</v>
       </c>
       <c r="J57" t="n">
-        <v>394.279998779297</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4588.9599609375</v>
-      </c>
-      <c r="L57" t="n">
-        <v>99.3899993896484</v>
+        <v>454.549987792969</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>187.869995117188</v>
+      </c>
+      <c r="B58" t="n">
         <v>327.760009765625</v>
       </c>
-      <c r="B58" t="n">
-        <v>187.869995117188</v>
-      </c>
       <c r="C58" t="n">
+        <v>493.549987792969</v>
+      </c>
+      <c r="D58" t="n">
         <v>138.009994506836</v>
       </c>
-      <c r="D58" t="n">
-        <v>493.549987792969</v>
-      </c>
       <c r="E58" t="n">
+        <v>295.890014648438</v>
+      </c>
+      <c r="F58" t="n">
+        <v>137.350006103516</v>
+      </c>
+      <c r="G58" t="n">
         <v>136.169998168945</v>
       </c>
-      <c r="F58" t="n">
-        <v>295.890014648438</v>
-      </c>
-      <c r="G58" t="n">
-        <v>59.8300018310547</v>
-      </c>
       <c r="H58" t="n">
-        <v>245.679992675781</v>
+        <v>258.079986572266</v>
       </c>
       <c r="I58" t="n">
-        <v>549.280029296875</v>
+        <v>922.890014648438</v>
       </c>
       <c r="J58" t="n">
-        <v>412.640014648438</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4507.66015625</v>
-      </c>
-      <c r="L58" t="n">
-        <v>96.5</v>
+        <v>554.200012207031</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>171.210006713867</v>
+      </c>
+      <c r="B59" t="n">
         <v>315.75</v>
       </c>
-      <c r="B59" t="n">
-        <v>171.210006713867</v>
-      </c>
       <c r="C59" t="n">
+        <v>434.989990234375</v>
+      </c>
+      <c r="D59" t="n">
         <v>127.120002746582</v>
       </c>
-      <c r="D59" t="n">
-        <v>434.989990234375</v>
-      </c>
       <c r="E59" t="n">
+        <v>300.209991455078</v>
+      </c>
+      <c r="F59" t="n">
+        <v>131.850006103516</v>
+      </c>
+      <c r="G59" t="n">
         <v>130.860000610352</v>
       </c>
-      <c r="F59" t="n">
-        <v>300.209991455078</v>
-      </c>
-      <c r="G59" t="n">
-        <v>55.9799995422363</v>
-      </c>
       <c r="H59" t="n">
-        <v>230.009994506836</v>
+        <v>250.220001220703</v>
       </c>
       <c r="I59" t="n">
-        <v>564.960021972656</v>
+        <v>830.580017089844</v>
       </c>
       <c r="J59" t="n">
-        <v>395.910003662109</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4288.0498046875</v>
-      </c>
-      <c r="L59" t="n">
-        <v>92.370002746582</v>
+        <v>537.130004882812</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
+        <v>170.770004272461</v>
+      </c>
+      <c r="B60" t="n">
         <v>338.109985351562</v>
       </c>
-      <c r="B60" t="n">
-        <v>170.770004272461</v>
-      </c>
       <c r="C60" t="n">
+        <v>407.799987792969</v>
+      </c>
+      <c r="D60" t="n">
         <v>133.089996337891</v>
       </c>
-      <c r="D60" t="n">
-        <v>407.799987792969</v>
-      </c>
       <c r="E60" t="n">
+        <v>301.269989013672</v>
+      </c>
+      <c r="F60" t="n">
+        <v>125.300003051758</v>
+      </c>
+      <c r="G60" t="n">
         <v>124.080001831055</v>
       </c>
-      <c r="F60" t="n">
-        <v>301.269989013672</v>
-      </c>
-      <c r="G60" t="n">
-        <v>56.4900016784668</v>
-      </c>
       <c r="H60" t="n">
-        <v>235.100006103516</v>
+        <v>200.839996337891</v>
       </c>
       <c r="I60" t="n">
-        <v>552.440002441406</v>
+        <v>841.369995117188</v>
       </c>
       <c r="J60" t="n">
-        <v>376.350006103516</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4193.7998046875</v>
-      </c>
-      <c r="L60" t="n">
-        <v>90.0199966430664</v>
+        <v>553.929992675781</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
+        <v>189.949996948242</v>
+      </c>
+      <c r="B61" t="n">
         <v>378.910003662109</v>
       </c>
-      <c r="B61" t="n">
-        <v>189.949996948242</v>
-      </c>
       <c r="C61" t="n">
+        <v>467.700012207031</v>
+      </c>
+      <c r="D61" t="n">
         <v>146.089996337891</v>
       </c>
-      <c r="D61" t="n">
-        <v>467.700012207031</v>
-      </c>
       <c r="E61" t="n">
+        <v>327.149993896484</v>
+      </c>
+      <c r="F61" t="n">
+        <v>133.919998168945</v>
+      </c>
+      <c r="G61" t="n">
         <v>132.529998779297</v>
       </c>
-      <c r="F61" t="n">
-        <v>327.149993896484</v>
-      </c>
-      <c r="G61" t="n">
-        <v>58.439998626709</v>
-      </c>
       <c r="H61" t="n">
-        <v>256.679992675781</v>
+        <v>240.080001831055</v>
       </c>
       <c r="I61" t="n">
-        <v>592.739990234375</v>
+        <v>925.72998046875</v>
       </c>
       <c r="J61" t="n">
-        <v>413.829986572266</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4567.7998046875</v>
-      </c>
-      <c r="L61" t="n">
-        <v>98.0199966430664</v>
+        <v>591.039978027344</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>192.529998779297</v>
+      </c>
+      <c r="B62" t="n">
         <v>376.040008544922</v>
       </c>
-      <c r="B62" t="n">
-        <v>192.529998779297</v>
-      </c>
       <c r="C62" t="n">
+        <v>495.220001220703</v>
+      </c>
+      <c r="D62" t="n">
         <v>151.940002441406</v>
       </c>
-      <c r="D62" t="n">
-        <v>495.220001220703</v>
-      </c>
       <c r="E62" t="n">
+        <v>353.959991455078</v>
+      </c>
+      <c r="F62" t="n">
+        <v>140.929992675781</v>
+      </c>
+      <c r="G62" t="n">
         <v>139.690002441406</v>
       </c>
-      <c r="F62" t="n">
-        <v>353.959991455078</v>
-      </c>
-      <c r="G62" t="n">
-        <v>58.9300003051758</v>
-      </c>
       <c r="H62" t="n">
-        <v>260.350006103516</v>
+        <v>248.479995727539</v>
       </c>
       <c r="I62" t="n">
-        <v>660.080017089844</v>
+        <v>1116.25</v>
       </c>
       <c r="J62" t="n">
-        <v>426.510009765625</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4769.830078125</v>
-      </c>
-      <c r="L62" t="n">
-        <v>101.769996643066</v>
+        <v>582.919982910156</v>
       </c>
     </row>
   </sheetData>
